--- a/Project QUBO/eagleDesigns/Qubo New/Power Board/Robotics Powerboard Part List.xlsx
+++ b/Project QUBO/eagleDesigns/Qubo New/Power Board/Robotics Powerboard Part List.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonyostuni/Library/Mobile Documents/com~apple~CloudDocs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79737ABA-E4FA-2E46-965F-4F81A488B78B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A526B7-E18C-9C43-B42F-61EFABB8E6C1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
-  <si>
-    <t>Part Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>Supplier</t>
   </si>
@@ -39,9 +36,6 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>ACS713SOIC</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
@@ -60,81 +54,24 @@
     <t>Cost ($)</t>
   </si>
   <si>
-    <t>PTN78020</t>
-  </si>
-  <si>
     <t>10V Regulator</t>
   </si>
   <si>
-    <t>PCF8574T</t>
-  </si>
-  <si>
-    <t>ADS7828</t>
-  </si>
-  <si>
     <t>Analog to Digital Converter</t>
   </si>
   <si>
     <t>WM12425-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">Power Housing Connector Receptacle </t>
-  </si>
-  <si>
-    <t>WM12431-ND</t>
-  </si>
-  <si>
-    <t>Power Housing Connector Plug</t>
-  </si>
-  <si>
     <t>*** Extra 8 (already factored in) required because Nate is incompetent ***</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/molex-llc/1726732002/WM12431-ND/5154615</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/molex-llc/1726722002/WM12425-ND/5154603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.67000	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	0.88000</t>
-  </si>
-  <si>
-    <t>Input Current Sensor</t>
-  </si>
-  <si>
     <t>20A Fuse</t>
   </si>
   <si>
-    <t>UEI15</t>
-  </si>
-  <si>
     <t>Magnetic Reed Switch</t>
   </si>
   <si>
-    <t>330uF cap</t>
-  </si>
-  <si>
-    <t>47nF cap</t>
-  </si>
-  <si>
-    <t>2.66k Ohm resistor</t>
-  </si>
-  <si>
-    <t>90k Ohm resistor</t>
-  </si>
-  <si>
-    <t>TSR2-2450</t>
-  </si>
-  <si>
-    <t>KK254_VERT_2PIN</t>
-  </si>
-  <si>
-    <t>KUHP-5XX1-XX</t>
-  </si>
-  <si>
     <t>Relay</t>
   </si>
   <si>
@@ -145,13 +82,151 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/texas-instruments/PTN78020WAD/296-32722-ND/1573806</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/nxp-usa-inc/PCF8574T-3518/568-1077-1-ND/735791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22000	</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/texas-instruments/ADS7828E-2K5/296-38856-1-ND/5142974</t>
+  </si>
+  <si>
+    <t>DC/DC Converter</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/murata-power-solutions-inc/UEI15-120-Q12P-C/811-1868-5-ND/1980326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.50000	</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/productdetail/traco-power/tsr-2-2450?qs=NtE2QagKf6RzknAolzm%2FTQ%3D%3D</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>5V Regulator</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/vishay-thin-film/PTN0805E9002BST1/764-1550-1-ND/7103334</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/johanson-dielectrics-inc/500X15W473MV4E/709-1012-1-ND/1556417</t>
+  </si>
+  <si>
+    <t>620-1192-2-ND</t>
+  </si>
+  <si>
+    <t>296-32722-ND</t>
+  </si>
+  <si>
+    <t>Part Number (Supplier's)</t>
+  </si>
+  <si>
+    <t>568-1077-1-ND</t>
+  </si>
+  <si>
+    <t>296-38856-1-ND</t>
+  </si>
+  <si>
+    <t>811-1868-5-ND</t>
+  </si>
+  <si>
+    <t>495-TSR2-2450</t>
+  </si>
+  <si>
+    <t>90Kohm Resistor</t>
+  </si>
+  <si>
+    <t>764-1550-1-ND</t>
+  </si>
+  <si>
+    <t>47nF Capacitor</t>
+  </si>
+  <si>
+    <t>709-1012-1-ND</t>
+  </si>
+  <si>
+    <t>WM16294-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/molex-llc/1720420202/WM16294-ND/4839816</t>
+  </si>
+  <si>
+    <t>2.66Kohm Resistor</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Vishay/TNPW08052K67BEEN?qs=sGAEpiMZZMtlubZbdhIBIMB0wQ2hpkQgeMpO%2fajDALg%3d</t>
+  </si>
+  <si>
+    <t>71-TNPW08052K67BEEN</t>
+  </si>
+  <si>
+    <t>576-0314025.MXP</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Littelfuse/0314025MXP/?qs=sGAEpiMZZMuMS2dUaCDnDF8nDzVNPd0W</t>
+  </si>
+  <si>
+    <t>Fuse Clips</t>
+  </si>
+  <si>
+    <t>576-01220083Z</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Littelfuse/01220083Z?qs=%2fha2pyFadugTeGyKweRFjA7Xr6uEodIz4ITJQq0%2f3RyvLnEU5mzvkA%3d%3d</t>
+  </si>
+  <si>
+    <t>Current Sensor</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/te-connectivity-potter-brumfield-relays/KUHP-5D51-12/PB1460-ND/1015571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.85000	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	PB1460-ND</t>
+  </si>
+  <si>
+    <t>Super Sabre Header, Male Blades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11000	</t>
+  </si>
+  <si>
+    <t>Super Sabre Female Blade</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/molex-llc/1718250100/WM12411CT-ND/5804329</t>
+  </si>
+  <si>
+    <t>WM12411CT-ND</t>
+  </si>
+  <si>
+    <t>Super Sabre Receptacle</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en?keywords=172672-2002</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/panasonic-electronic-components/ECA-1HM331/P5184-ND/245043</t>
+  </si>
+  <si>
+    <t>P5184-ND</t>
+  </si>
+  <si>
+    <t>330 uF Capacitor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -188,6 +263,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -210,7 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -219,6 +300,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="40" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="40" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -534,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -546,229 +631,387 @@
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
     <col min="4" max="4" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="101.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="127.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="64.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4">
         <v>1.8963000000000001</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>25.44</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7.72</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8">
         <v>8</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>18</v>
+      <c r="A9" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
+      <c r="F9" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="6">
+        <v>12.46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1.36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
       </c>
       <c r="E17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
       </c>
       <c r="E18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
       </c>
       <c r="E19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
+      <c r="F19" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{D4320273-C6F2-1A4B-AB36-97E3C1CF72AA}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{D4320273-C6F2-1A4B-AB36-97E3C1CF72AA}"/>
+    <hyperlink ref="F11" r:id="rId3" xr:uid="{32A707C5-7FF3-E64C-9C2C-278949508743}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{A54E6170-64ED-DE45-B2FC-F4BC961E7953}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{C79A2E96-992F-A842-822A-477BE07CFF71}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{46DEE30A-A56F-1049-A7BD-447D5128048A}"/>
+    <hyperlink ref="F12" r:id="rId7" xr:uid="{E89BBF17-BA72-D049-8054-6D851B9ED20D}"/>
+    <hyperlink ref="F17" r:id="rId8" xr:uid="{67773A4E-77FB-AE41-90CC-5C53ECD8FCE0}"/>
+    <hyperlink ref="F18" r:id="rId9" xr:uid="{762FA244-89B7-A84B-AD95-79206EAD5CDA}"/>
+    <hyperlink ref="F8" r:id="rId10" xr:uid="{B6D552BB-185A-7447-BD82-D43A0150EAA9}"/>
+    <hyperlink ref="F10" r:id="rId11" xr:uid="{653EE4F2-BEA5-FA45-B161-E713FE4DF7BC}"/>
+    <hyperlink ref="F9" r:id="rId12" xr:uid="{7674E973-257E-804F-ACA7-331423ADA78F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Project QUBO/eagleDesigns/Qubo New/Power Board/Robotics Powerboard Part List.xlsx
+++ b/Project QUBO/eagleDesigns/Qubo New/Power Board/Robotics Powerboard Part List.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonyostuni/Library/Mobile Documents/com~apple~CloudDocs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexj\Documents\Project Qubo\trunk\Project QUBO\eagleDesigns\Qubo New\Power Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A526B7-E18C-9C43-B42F-61EFABB8E6C1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A971691-6F56-4E96-A2DD-FDA27691340E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>Supplier</t>
   </si>
@@ -220,13 +220,25 @@
   </si>
   <si>
     <t>330 uF Capacitor</t>
+  </si>
+  <si>
+    <t>BCS-106-L-D-PE-BE</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/samtec-inc/BCS-106-L-D-PE-BE/SAM9053-ND/6628937</t>
+  </si>
+  <si>
+    <t>CONN RECEPT 2MM VERT AU 10POS</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/harwin-inc/M22-7131042/952-1354-5-ND/2264335</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -269,6 +281,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -291,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -304,6 +322,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="40" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="40" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -619,13 +638,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
@@ -635,7 +654,7 @@
     <col min="7" max="7" width="64.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -655,7 +674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -675,7 +694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -695,7 +714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -715,7 +734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -735,7 +754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -755,7 +774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
@@ -778,7 +797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>59</v>
       </c>
@@ -798,7 +817,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -818,7 +837,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -838,7 +857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -858,7 +877,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -878,7 +897,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>49</v>
       </c>
@@ -898,7 +917,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -918,7 +937,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -938,7 +957,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -958,7 +977,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -978,7 +997,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -996,6 +1015,28 @@
       </c>
       <c r="F19" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1012,8 +1053,10 @@
     <hyperlink ref="F8" r:id="rId10" xr:uid="{B6D552BB-185A-7447-BD82-D43A0150EAA9}"/>
     <hyperlink ref="F10" r:id="rId11" xr:uid="{653EE4F2-BEA5-FA45-B161-E713FE4DF7BC}"/>
     <hyperlink ref="F9" r:id="rId12" xr:uid="{7674E973-257E-804F-ACA7-331423ADA78F}"/>
+    <hyperlink ref="F20" r:id="rId13" xr:uid="{C2AE9491-4374-4E10-9CAF-DB64302B404E}"/>
+    <hyperlink ref="F21" r:id="rId14" xr:uid="{83618CCC-2F42-44A1-BF70-BED045EA7DCB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>